--- a/case_data/testCase.xlsx
+++ b/case_data/testCase.xlsx
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,6 +121,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -129,22 +137,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,36 +219,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,70 +248,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,40 +468,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +497,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -534,22 +525,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,151 +540,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,15 +1039,15 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="3.725" customWidth="1"/>
-    <col min="2" max="2" width="15.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="7.81666666666667" customWidth="1"/>
-    <col min="4" max="4" width="39.8166666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="50.875" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
   </cols>

--- a/case_data/testCase.xlsx
+++ b/case_data/testCase.xlsx
@@ -46,7 +46,7 @@
     <t>http://api.lemonban.com/futureloan/member/login</t>
   </si>
   <si>
-    <t>{'mobile_phone':'18820992515','pwd':'Aa123456'}</t>
+    <t>{'mobile_phone':#mobile#,'pwd':'Aa123456'}</t>
   </si>
   <si>
     <t>{'code': 0, 'msg': 'OK'}</t>
@@ -99,8 +99,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -121,30 +121,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,42 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -202,63 +233,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,37 +273,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,37 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,91 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,32 +467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,8 +494,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,7 +519,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,15 +546,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,148 +567,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="5"/>

--- a/case_data/testCase.xlsx
+++ b/case_data/testCase.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="充值" sheetId="3" r:id="rId2"/>
+    <sheet name="项目列表" sheetId="3" r:id="rId2"/>
     <sheet name="发标" sheetId="4" r:id="rId3"/>
     <sheet name="投资" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -37,6 +37,9 @@
     <t>expected_data</t>
   </si>
   <si>
+    <t>check_db</t>
+  </si>
+  <si>
     <t>登陆成功</t>
   </si>
   <si>
@@ -46,7 +49,7 @@
     <t>http://api.lemonban.com/futureloan/member/login</t>
   </si>
   <si>
-    <t>{'mobile_phone':#mobile#,'pwd':'Aa123456'}</t>
+    <t>{'mobile_phone':'17620911284','pwd':'Aa123456'}</t>
   </si>
   <si>
     <t>{'code': 0, 'msg': 'OK'}</t>
@@ -55,12 +58,15 @@
     <t>手机号格式错误</t>
   </si>
   <si>
-    <t>{'mobile_phone':'188209925151','pwd':'Aa123456'}</t>
+    <t>{'mobile_phone':'#mobile#','pwd':'Aa123456'}</t>
   </si>
   <si>
     <t>{'code': 2, 'msg': '无效的手机格式'}</t>
   </si>
   <si>
+    <t>{'actual_data':'select * from member where mobile_phone='#mobile#','expected_data':'1'}</t>
+  </si>
+  <si>
     <t>手机号不存在</t>
   </si>
   <si>
@@ -92,6 +98,12 @@
   </si>
   <si>
     <t>{'code': 1, 'msg': '密码为空'}</t>
+  </si>
+  <si>
+    <t>{'mobile_phone':‘17620911284’,'pwd':'Aa123456'}</t>
+  </si>
+  <si>
+    <t>{'mobile_phone':‘#mobile#’,'pwd':'Aa123456'}</t>
   </si>
 </sst>
 </file>
@@ -99,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -124,19 +136,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +184,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -156,15 +192,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,50 +238,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,25 +262,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,13 +285,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,169 +387,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,11 +479,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,8 +520,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -519,32 +548,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -564,151 +567,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,13 +1048,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="3.725" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -1050,9 +1062,10 @@
     <col min="4" max="4" width="50.875" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,6 +1083,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1077,39 +1093,42 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1117,19 +1136,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1137,19 +1156,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1157,19 +1176,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1177,19 +1196,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1204,14 +1223,165 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="5" width="49.125" customWidth="1"/>
+    <col min="6" max="6" width="34.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://api.lemonban.com/futureloan/member/login"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/case_data/testCase.xlsx
+++ b/case_data/testCase.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>check_db</t>
   </si>
   <si>
+    <t>replace_request_data</t>
+  </si>
+  <si>
     <t>登陆成功</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>{'actual_data':'select * from member where mobile_phone='#mobile#','expected_data':'1'}</t>
+  </si>
+  <si>
+    <t>{"mobile":["db","select mobile_phone from member where type=0 order by id DESC limit 1"]}</t>
   </si>
   <si>
     <t>手机号不存在</t>
@@ -111,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -133,9 +139,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -150,13 +171,50 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,39 +222,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,37 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -262,8 +267,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +291,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,26 +485,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,26 +513,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,159 +544,189 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,13 +1054,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="3.725" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -1063,9 +1069,10 @@
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="35.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="85.625" customWidth="1"/>
+    <col min="8" max="8" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,6 +1093,9 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1093,42 +1103,45 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1136,19 +1149,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1156,19 +1169,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1176,19 +1189,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1196,19 +1209,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1263,19 +1276,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1283,19 +1296,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1303,19 +1316,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1323,19 +1336,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1343,19 +1356,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1363,19 +1376,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
